--- a/TBEA/BusinessPerformance/Documentation/市场信息化/输变电12月项目信息台帐(修改后).xlsx
+++ b/TBEA/BusinessPerformance/Documentation/市场信息化/输变电12月项目信息台帐(修改后).xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AD$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>单位</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -65,12 +65,6 @@
     <t>项目简介</t>
   </si>
   <si>
-    <t>目前推进跟踪情况及后期计划</t>
-  </si>
-  <si>
-    <t>本单位项目负责人及联系方式</t>
-  </si>
-  <si>
     <t>投标情况</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -101,27 +95,31 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>前期已报名，目前项目进展缓慢预计到2015年4月进行招标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新变</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>本单位负责该项目的主管领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位项目负责人及联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>跟踪该项目的其它内部企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本单位负责该项目的主管领导</t>
+    <t>目前推进跟踪情况及后期计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投标限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目推进情况及后期计划</t>
+    <t>前期已报名，目前项目进展缓慢预计到2015年4月进行招标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1355,11 +1353,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1370,7 +1368,7 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,47 +1409,44 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12">
@@ -1462,32 +1457,31 @@
         <v>42095</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R2" s="7">
         <v>3500</v>
       </c>
       <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="17"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD2">
+  <autoFilter ref="A1:AC2">
     <sortState ref="A2:AB18782">
       <sortCondition ref="R1:R18782"/>
     </sortState>

--- a/TBEA/BusinessPerformance/Documentation/市场信息化/输变电12月项目信息台帐(修改后).xlsx
+++ b/TBEA/BusinessPerformance/Documentation/市场信息化/输变电12月项目信息台帐(修改后).xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -130,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,14 +235,6 @@
       <family val="1"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -416,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -460,17 +452,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1353,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1368,7 +1351,7 @@
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,18 +1406,18 @@
       <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
@@ -1473,15 +1456,9 @@
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="10"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC2">
+  <autoFilter ref="A1:T2">
     <sortState ref="A2:AB18782">
       <sortCondition ref="R1:R18782"/>
     </sortState>

--- a/TBEA/BusinessPerformance/Documentation/市场信息化/输变电12月项目信息台帐(修改后).xlsx
+++ b/TBEA/BusinessPerformance/Documentation/市场信息化/输变电12月项目信息台帐(修改后).xlsx
@@ -55,72 +55,72 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>项目所在区域</t>
+  </si>
+  <si>
+    <t>项目简介</t>
+  </si>
+  <si>
+    <t>投标情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>火电</t>
+  </si>
+  <si>
+    <t>国电集团</t>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XBZT-1106-0330</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">国电集团 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位负责该项目的主管领导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本单位项目负责人及联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪该项目的其它内部企业名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前推进跟踪情况及后期计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期已报名，目前项目进展缓慢预计到2015年4月进行招标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>预计招标时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目所在区域</t>
-  </si>
-  <si>
-    <t>项目简介</t>
-  </si>
-  <si>
-    <t>投标情况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>火电</t>
-  </si>
-  <si>
-    <t>国电集团</t>
-  </si>
-  <si>
-    <t>新疆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>XBZT-1106-0330</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">国电集团 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本单位负责该项目的主管领导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本单位项目负责人及联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪该项目的其它内部企业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前推进跟踪情况及后期计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前期已报名，目前项目进展缓慢预计到2015年4月进行招标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -292,6 +292,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -408,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +469,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1347,7 +1372,7 @@
   <cols>
     <col min="8" max="8" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="19" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1379,77 +1404,77 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12">
         <v>5</v>
       </c>
-      <c r="J2" s="11"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="13">
-        <v>42095</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>17</v>
+        <v>42255</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R2" s="7">
         <v>3500</v>
